--- a/Team-Data/2014-15/1-13-2014-15.xlsx
+++ b/Team-Data/2014-15/1-13-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -738,28 +805,28 @@
         <v>21.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -768,28 +835,28 @@
         <v>5</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS2" t="n">
         <v>11</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -804,22 +871,22 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -938,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
         <v>3</v>
@@ -971,16 +1038,16 @@
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
@@ -992,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1156,13 +1223,13 @@
         <v>13</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1174,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1317,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
@@ -1341,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1362,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>5</v>
@@ -1490,7 +1557,7 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR6" t="n">
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1600,49 +1667,49 @@
         <v>0.448</v>
       </c>
       <c r="L7" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M7" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P7" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T7" t="n">
         <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AA7" t="n">
         <v>21.2</v>
@@ -1651,22 +1718,22 @@
         <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1678,19 +1745,19 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1699,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT7" t="n">
         <v>24</v>
@@ -1717,13 +1784,13 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -1761,25 +1828,25 @@
         <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.711</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>86.8</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
         <v>9.6</v>
@@ -1788,34 +1855,34 @@
         <v>26.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>12.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1824,37 +1891,37 @@
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1866,25 +1933,25 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
@@ -2033,10 +2100,10 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2054,10 +2121,10 @@
         <v>4</v>
       </c>
       <c r="AP9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2093,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2227,16 +2294,16 @@
         <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2263,7 +2330,7 @@
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2304,79 +2371,79 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.857</v>
+        <v>0.853</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J11" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.484</v>
       </c>
       <c r="L11" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>26.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.383</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R11" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
         <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
         <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -2385,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2421,25 +2488,25 @@
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.703</v>
+        <v>0.711</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.436</v>
@@ -2513,19 +2580,19 @@
         <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R12" t="n">
         <v>12.4</v>
@@ -2534,13 +2601,13 @@
         <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.699999999999999</v>
@@ -2549,31 +2616,31 @@
         <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
@@ -2624,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.754</v>
       </c>
       <c r="R13" t="n">
         <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
@@ -2734,28 +2801,28 @@
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21.1</v>
-      </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2764,16 +2831,16 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>
@@ -2782,10 +2849,10 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>12</v>
@@ -2809,19 +2876,19 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
@@ -2949,7 +3016,7 @@
         <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -2958,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>28</v>
@@ -2976,13 +3043,13 @@
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3047,118 +3114,118 @@
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
         <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>19</v>
@@ -3167,22 +3234,22 @@
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
         <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3325,22 +3392,22 @@
         <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3355,19 +3422,19 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
       </c>
       <c r="BA16" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB16" t="n">
         <v>14</v>
       </c>
-      <c r="BB16" t="n">
-        <v>13</v>
-      </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.447</v>
+        <v>0.432</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,70 +3481,70 @@
         <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L17" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R17" t="n">
         <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="T17" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y17" t="n">
         <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3498,19 +3565,19 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN17" t="n">
         <v>16</v>
       </c>
-      <c r="AM17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>18</v>
-      </c>
       <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
         <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
         <v>12</v>
@@ -3537,13 +3604,13 @@
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,16 +3735,16 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3713,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
@@ -3722,13 +3789,13 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.162</v>
+        <v>0.139</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J19" t="n">
         <v>85.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.335</v>
       </c>
       <c r="O19" t="n">
         <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S19" t="n">
         <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
         <v>22.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>9.1</v>
@@ -3829,16 +3896,16 @@
         <v>20.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.6</v>
+        <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>16</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3910,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.472</v>
+        <v>0.486</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,88 +4027,88 @@
         <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>84.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.759</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
         <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
         <v>17</v>
       </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,22 +4144,22 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4226,13 +4293,13 @@
         <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4402,7 +4469,7 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -4417,7 +4484,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>12</v>
@@ -4435,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
@@ -4444,16 +4511,16 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -4488,94 +4555,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.341</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
         <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.369</v>
       </c>
       <c r="O23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
         <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4584,16 +4651,16 @@
         <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4608,7 +4675,7 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>17</v>
@@ -4617,19 +4684,19 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.189</v>
+        <v>0.194</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="J24" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.411</v>
       </c>
       <c r="L24" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
         <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="O24" t="n">
         <v>16.8</v>
@@ -4709,16 +4776,16 @@
         <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>19.9</v>
@@ -4727,7 +4794,7 @@
         <v>19</v>
       </c>
       <c r="W24" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
         <v>5.7</v>
@@ -4739,16 +4806,16 @@
         <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,22 +4827,22 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -4852,70 +4919,70 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I25" t="n">
         <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M25" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.361</v>
       </c>
       <c r="O25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>22.7</v>
@@ -4927,13 +4994,13 @@
         <v>107</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4942,31 +5009,31 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4975,37 +5042,37 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5130,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5139,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
@@ -5169,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5216,97 +5283,97 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.421</v>
+        <v>0.432</v>
       </c>
       <c r="H27" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
         <v>0.459</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.336</v>
+        <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="P27" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA27" t="n">
         <v>25.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC27" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5315,16 +5382,16 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.579</v>
+        <v>0.605</v>
       </c>
       <c r="H28" t="n">
         <v>49.2</v>
@@ -5416,70 +5483,70 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5494,13 +5561,13 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
@@ -5542,16 +5609,16 @@
         <v>10</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
         <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5658,25 +5725,25 @@
         <v>5.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG29" t="n">
         <v>7</v>
       </c>
-      <c r="AG29" t="n">
-        <v>8</v>
-      </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5715,25 +5782,25 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>0.333</v>
+        <v>0.342</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
@@ -5801,7 +5868,7 @@
         <v>23.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
@@ -5813,7 +5880,7 @@
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
@@ -5831,16 +5898,16 @@
         <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC30" t="n">
-        <v>-3.3</v>
+        <v>-3.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5849,7 +5916,7 @@
         <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5873,25 +5940,25 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>23</v>
@@ -5900,7 +5967,7 @@
         <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5909,10 +5976,10 @@
         <v>5</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,7 +6029,7 @@
         <v>38.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.473</v>
@@ -5971,70 +6038,70 @@
         <v>6.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB31" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
         <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
@@ -6043,13 +6110,13 @@
         <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>1</v>
@@ -6064,7 +6131,7 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>14</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
@@ -6085,19 +6152,19 @@
         <v>9</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2014-15</t>
+          <t>2015-01-13</t>
         </is>
       </c>
     </row>
